--- a/BSTAuto_Python/bst_new/data/xmjl_list/云南_项目经理列表_模板.xlsx
+++ b/BSTAuto_Python/bst_new/data/xmjl_list/云南_项目经理列表_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24105" windowHeight="12375"/>
+    <workbookView windowWidth="20220" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,42 +14,939 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>qyname</t>
-  </si>
-  <si>
-    <t>xmjl</t>
-  </si>
-  <si>
-    <t>云南杰联市政工程有限公司</t>
-  </si>
-  <si>
-    <t>李权</t>
-  </si>
-  <si>
-    <t>姚振华</t>
-  </si>
-  <si>
-    <t>李朝波</t>
-  </si>
-  <si>
-    <t>任东亮</t>
-  </si>
-  <si>
-    <t>丽江金石建筑有限责任公司</t>
-  </si>
-  <si>
-    <t>张晓东</t>
-  </si>
-  <si>
-    <t>奚绍礼</t>
-  </si>
-  <si>
-    <t>杨志华</t>
-  </si>
-  <si>
-    <t>章仕成</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="311">
+  <si>
+    <t>person_key</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>entname</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>zjhm</t>
+  </si>
+  <si>
+    <t>xzqh</t>
+  </si>
+  <si>
+    <t>qy_total</t>
+  </si>
+  <si>
+    <t>ry_total</t>
+  </si>
+  <si>
+    <t>测试负责人</t>
+  </si>
+  <si>
+    <t>李恩勇</t>
+  </si>
+  <si>
+    <t>云南工程建设总承包股份有限公司</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>贺家斌</t>
+  </si>
+  <si>
+    <t>李希华</t>
+  </si>
+  <si>
+    <t>云南利鲁环境建设有限公司</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>5330231985******1X</t>
+  </si>
+  <si>
+    <t>5301</t>
+  </si>
+  <si>
+    <t>李正祥</t>
+  </si>
+  <si>
+    <t>云南京骏建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>532************711</t>
+  </si>
+  <si>
+    <t>5325</t>
+  </si>
+  <si>
+    <t>栾砚良</t>
+  </si>
+  <si>
+    <t>曲靖市马龙区金成建筑有限责任公司</t>
+  </si>
+  <si>
+    <t>5322********051955</t>
+  </si>
+  <si>
+    <t>5303</t>
+  </si>
+  <si>
+    <t>王世成</t>
+  </si>
+  <si>
+    <t>云南昊海工程造价咨询有限公司</t>
+  </si>
+  <si>
+    <t>5301021966******1X</t>
+  </si>
+  <si>
+    <t>夏化芬</t>
+  </si>
+  <si>
+    <t>昆明有色冶金设计研究院股份公司</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>5101**********0046</t>
+  </si>
+  <si>
+    <t>李寿</t>
+  </si>
+  <si>
+    <t>思茅建华工程有限公司</t>
+  </si>
+  <si>
+    <t>5327016******01</t>
+  </si>
+  <si>
+    <t>5308</t>
+  </si>
+  <si>
+    <t>杨春莉</t>
+  </si>
+  <si>
+    <t>文山巨进市政工程有限责任公司</t>
+  </si>
+  <si>
+    <t>610************049</t>
+  </si>
+  <si>
+    <t>5326</t>
+  </si>
+  <si>
+    <t>杨金武</t>
+  </si>
+  <si>
+    <t>云南建投第十建设有限公司</t>
+  </si>
+  <si>
+    <t>5301**********005X</t>
+  </si>
+  <si>
+    <t>张永豪</t>
+  </si>
+  <si>
+    <t>保山市河图建筑工程有限责任公司</t>
+  </si>
+  <si>
+    <t>5330********150618</t>
+  </si>
+  <si>
+    <t>5305</t>
+  </si>
+  <si>
+    <t>陈得新</t>
+  </si>
+  <si>
+    <t>云南顺飞建设工程有限公司</t>
+  </si>
+  <si>
+    <t>340************516</t>
+  </si>
+  <si>
+    <t>胡苗芳</t>
+  </si>
+  <si>
+    <t>盛云科技有限公司</t>
+  </si>
+  <si>
+    <t>3306211978******62</t>
+  </si>
+  <si>
+    <t>鲁猛</t>
+  </si>
+  <si>
+    <t>云南九和建设集团有限公司</t>
+  </si>
+  <si>
+    <t>5325261988******38</t>
+  </si>
+  <si>
+    <t>杨飞虎</t>
+  </si>
+  <si>
+    <t>洱源县建筑建材有限责任公司</t>
+  </si>
+  <si>
+    <t>532************138</t>
+  </si>
+  <si>
+    <t>5329</t>
+  </si>
+  <si>
+    <t>张君兴</t>
+  </si>
+  <si>
+    <t>腾冲市腾越建筑工程有限责任公司</t>
+  </si>
+  <si>
+    <t>5330**********2819</t>
+  </si>
+  <si>
+    <t>杨华</t>
+  </si>
+  <si>
+    <t>中国电建集团昆明勘测设计研究院有限公司</t>
+  </si>
+  <si>
+    <t>51010219******8451</t>
+  </si>
+  <si>
+    <t>朱玉龙</t>
+  </si>
+  <si>
+    <t>云南木盛和岩土工程有限公司</t>
+  </si>
+  <si>
+    <t>3426011989******15</t>
+  </si>
+  <si>
+    <t>李明宇</t>
+  </si>
+  <si>
+    <t>云南天一工程造价咨询有限公司</t>
+  </si>
+  <si>
+    <t>530************538</t>
+  </si>
+  <si>
+    <t>赵永丽</t>
+  </si>
+  <si>
+    <t>云南昊滇建设工程集团有限公司</t>
+  </si>
+  <si>
+    <t>5330********26244X</t>
+  </si>
+  <si>
+    <t>何学典</t>
+  </si>
+  <si>
+    <t>533************118</t>
+  </si>
+  <si>
+    <t>郭贵阳</t>
+  </si>
+  <si>
+    <t>普洱腾誉建设工程有限责任公司</t>
+  </si>
+  <si>
+    <t>5327**********1839</t>
+  </si>
+  <si>
+    <t>杨松</t>
+  </si>
+  <si>
+    <t>云南旭雄建设工程有限公司</t>
+  </si>
+  <si>
+    <t>5130********217915</t>
+  </si>
+  <si>
+    <t>张龙廷</t>
+  </si>
+  <si>
+    <t>云南红云建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>5111********046013</t>
+  </si>
+  <si>
+    <t>何芳</t>
+  </si>
+  <si>
+    <t>云南华鑫建工有限公司</t>
+  </si>
+  <si>
+    <t>533************32X</t>
+  </si>
+  <si>
+    <t>何毅</t>
+  </si>
+  <si>
+    <t>云南恒隆建设有限公司</t>
+  </si>
+  <si>
+    <t>510************555</t>
+  </si>
+  <si>
+    <t>陈思珣</t>
+  </si>
+  <si>
+    <t>云南省建设投资控股集团有限公司</t>
+  </si>
+  <si>
+    <t>5301**********2517</t>
+  </si>
+  <si>
+    <t>尹安乐</t>
+  </si>
+  <si>
+    <t>云南锦铮建设工程有限公司</t>
+  </si>
+  <si>
+    <t>533************257</t>
+  </si>
+  <si>
+    <t>5304</t>
+  </si>
+  <si>
+    <t>徐锐</t>
+  </si>
+  <si>
+    <t>华昆工程管理咨询有限公司</t>
+  </si>
+  <si>
+    <t>5302001972******17</t>
+  </si>
+  <si>
+    <t>袁永宁</t>
+  </si>
+  <si>
+    <t>云南中润建筑工程集团有限公司</t>
+  </si>
+  <si>
+    <t>5329011950******31</t>
+  </si>
+  <si>
+    <t>陈富华</t>
+  </si>
+  <si>
+    <t>云南科达装饰设计工程集团有限公司</t>
+  </si>
+  <si>
+    <t>4412**********7217</t>
+  </si>
+  <si>
+    <t>蒋金明</t>
+  </si>
+  <si>
+    <t>弥勒市弥阳建筑安装工程公司</t>
+  </si>
+  <si>
+    <t>5325**********0511</t>
+  </si>
+  <si>
+    <t>夏时勇</t>
+  </si>
+  <si>
+    <t>云南地质工程第二勘察院</t>
+  </si>
+  <si>
+    <t>5326251986******15</t>
+  </si>
+  <si>
+    <t>张兴祥</t>
+  </si>
+  <si>
+    <t>保山市第二建筑工程有限责任公司</t>
+  </si>
+  <si>
+    <t>533************611</t>
+  </si>
+  <si>
+    <t>崔起</t>
+  </si>
+  <si>
+    <t>云南涵乾农业科技有限公司</t>
+  </si>
+  <si>
+    <t>1202251986******16</t>
+  </si>
+  <si>
+    <t>夏天明</t>
+  </si>
+  <si>
+    <t>迪庆鸿耀建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>532************513</t>
+  </si>
+  <si>
+    <t>5334</t>
+  </si>
+  <si>
+    <t>和万圣</t>
+  </si>
+  <si>
+    <t>云南晨阳精诚建设监理咨询有限公司</t>
+  </si>
+  <si>
+    <t>5332**********4117</t>
+  </si>
+  <si>
+    <t>王世科</t>
+  </si>
+  <si>
+    <t>云南通海第一建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>532************612</t>
+  </si>
+  <si>
+    <t>张俊</t>
+  </si>
+  <si>
+    <t>云南建投第一水利水电建设有限公司</t>
+  </si>
+  <si>
+    <t>5304********020614</t>
+  </si>
+  <si>
+    <t>罗天娥</t>
+  </si>
+  <si>
+    <t>云南刘航希建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>5335********141820</t>
+  </si>
+  <si>
+    <t>曹家来</t>
+  </si>
+  <si>
+    <t>昆明凯诚达电力工程监理咨询有限公司</t>
+  </si>
+  <si>
+    <t>420************816</t>
+  </si>
+  <si>
+    <t>李俊碧</t>
+  </si>
+  <si>
+    <t>个旧市建筑安装有限责任公司</t>
+  </si>
+  <si>
+    <t>532************056</t>
+  </si>
+  <si>
+    <t>任世光</t>
+  </si>
+  <si>
+    <t>元谋中远工程有限公司</t>
+  </si>
+  <si>
+    <t>532************016</t>
+  </si>
+  <si>
+    <t>5323</t>
+  </si>
+  <si>
+    <t>张建元</t>
+  </si>
+  <si>
+    <t>云南清石建设工程有限公司</t>
+  </si>
+  <si>
+    <t>张俊生</t>
+  </si>
+  <si>
+    <t>泸西县工程建筑有限责任总公司</t>
+  </si>
+  <si>
+    <t>532************113</t>
+  </si>
+  <si>
+    <t>孙兴宇</t>
+  </si>
+  <si>
+    <t>中国水利水电第十四工程局有限公司</t>
+  </si>
+  <si>
+    <t>5301********292732</t>
+  </si>
+  <si>
+    <t>伏冲建</t>
+  </si>
+  <si>
+    <t>大理州仁和源电力工程有限公司</t>
+  </si>
+  <si>
+    <t>530************112</t>
+  </si>
+  <si>
+    <t>张俊洁</t>
+  </si>
+  <si>
+    <t>云南人防建筑设计院有限公司</t>
+  </si>
+  <si>
+    <t>532723********0010</t>
+  </si>
+  <si>
+    <t>唐艳华</t>
+  </si>
+  <si>
+    <t>云南亮云建设工程有限公司</t>
+  </si>
+  <si>
+    <t>530************715</t>
+  </si>
+  <si>
+    <t>朱恩永</t>
+  </si>
+  <si>
+    <t>开远祥邦工程有限公司</t>
+  </si>
+  <si>
+    <t>5303********090752</t>
+  </si>
+  <si>
+    <t>张勇</t>
+  </si>
+  <si>
+    <t>普洱建一建筑有限责任公司</t>
+  </si>
+  <si>
+    <t>532************972</t>
+  </si>
+  <si>
+    <t>和晓娟</t>
+  </si>
+  <si>
+    <t>云南东森建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>533************523</t>
+  </si>
+  <si>
+    <t>张剑辉</t>
+  </si>
+  <si>
+    <t>昆明官房建筑设计有限公司</t>
+  </si>
+  <si>
+    <t>5102121972******74</t>
+  </si>
+  <si>
+    <t>陈加云</t>
+  </si>
+  <si>
+    <t>云南建投第九建设有限公司</t>
+  </si>
+  <si>
+    <t>530************817</t>
+  </si>
+  <si>
+    <t>徐安峰</t>
+  </si>
+  <si>
+    <t>云南交通基建工程监理有限公司</t>
+  </si>
+  <si>
+    <t>6422261975******1X</t>
+  </si>
+  <si>
+    <t>包从国</t>
+  </si>
+  <si>
+    <t>云南昊为建设工程有限公司</t>
+  </si>
+  <si>
+    <t>530************016</t>
+  </si>
+  <si>
+    <t>李常娥</t>
+  </si>
+  <si>
+    <t>临沧市强力建筑集团有限责任公司</t>
+  </si>
+  <si>
+    <t>5335211986******23</t>
+  </si>
+  <si>
+    <t>5309</t>
+  </si>
+  <si>
+    <t>何希有</t>
+  </si>
+  <si>
+    <t>532************511</t>
+  </si>
+  <si>
+    <t>周庆栋</t>
+  </si>
+  <si>
+    <t>丽江市宁蒗宏翔建筑有限公司</t>
+  </si>
+  <si>
+    <t>5332********130014</t>
+  </si>
+  <si>
+    <t>5307</t>
+  </si>
+  <si>
+    <t>李彦平</t>
+  </si>
+  <si>
+    <t>云南工程建设监理有限公司</t>
+  </si>
+  <si>
+    <t>5329**********0711</t>
+  </si>
+  <si>
+    <t>聂建微</t>
+  </si>
+  <si>
+    <t>5110**********1916</t>
+  </si>
+  <si>
+    <t>伍尤涛</t>
+  </si>
+  <si>
+    <t>昆明民用建筑设计研究院有限公司</t>
+  </si>
+  <si>
+    <t>5326211976******59</t>
+  </si>
+  <si>
+    <t>刘鹏</t>
+  </si>
+  <si>
+    <t>昭通众鑫建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>532************990</t>
+  </si>
+  <si>
+    <t>5306</t>
+  </si>
+  <si>
+    <t>李森</t>
+  </si>
+  <si>
+    <t>石林电力工程发展有限公司</t>
+  </si>
+  <si>
+    <t>5301**********0030</t>
+  </si>
+  <si>
+    <t>刘海平</t>
+  </si>
+  <si>
+    <t>云南创峰建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>1102********190058</t>
+  </si>
+  <si>
+    <t>何慧萍</t>
+  </si>
+  <si>
+    <t>云南鸿能水利水电工程有限公司</t>
+  </si>
+  <si>
+    <t>5324241983******48</t>
+  </si>
+  <si>
+    <t>张雪华</t>
+  </si>
+  <si>
+    <t>云南颖博市政工程有限公司</t>
+  </si>
+  <si>
+    <t>532************967</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>云南建投第十一建设有限公司</t>
+  </si>
+  <si>
+    <t>李洪烈</t>
+  </si>
+  <si>
+    <t>昭通浩鑫工程有限公司</t>
+  </si>
+  <si>
+    <t>532************042</t>
+  </si>
+  <si>
+    <t>陈斌</t>
+  </si>
+  <si>
+    <t>腾冲县腾腾工程监理有限责任公司</t>
+  </si>
+  <si>
+    <t>5330231981******15</t>
+  </si>
+  <si>
+    <t>李晓婷</t>
+  </si>
+  <si>
+    <t>大理福田建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>5329********271328</t>
+  </si>
+  <si>
+    <t>石丙进</t>
+  </si>
+  <si>
+    <t>贺青</t>
+  </si>
+  <si>
+    <t>中国有色金属工业昆明勘察设计研究院有限公司</t>
+  </si>
+  <si>
+    <t>5104**********1414</t>
+  </si>
+  <si>
+    <t>胡新航</t>
+  </si>
+  <si>
+    <t>云南云桥建设股份有限公司</t>
+  </si>
+  <si>
+    <t>530************232</t>
+  </si>
+  <si>
+    <t>肖建芬</t>
+  </si>
+  <si>
+    <t>云南楚雄建华建设工程集团有限公司</t>
+  </si>
+  <si>
+    <t>532************726</t>
+  </si>
+  <si>
+    <t>张新光</t>
+  </si>
+  <si>
+    <t>保山交通建筑工程有限责任公司</t>
+  </si>
+  <si>
+    <t>533************61X</t>
+  </si>
+  <si>
+    <t>舒垟旗</t>
+  </si>
+  <si>
+    <t>云南旗兴建设有限公司</t>
+  </si>
+  <si>
+    <t>532************510</t>
+  </si>
+  <si>
+    <t>张斌</t>
+  </si>
+  <si>
+    <t>会泽天斗建设工程有限公司</t>
+  </si>
+  <si>
+    <t>530************311</t>
+  </si>
+  <si>
+    <t>张宁</t>
+  </si>
+  <si>
+    <t>德宏州建设监理有限公司</t>
+  </si>
+  <si>
+    <t>533************073</t>
+  </si>
+  <si>
+    <t>5331</t>
+  </si>
+  <si>
+    <t>李承芬</t>
+  </si>
+  <si>
+    <t>5303**********4327</t>
+  </si>
+  <si>
+    <t>李德维</t>
+  </si>
+  <si>
+    <t>昆明中友丰钰科技有限公司</t>
+  </si>
+  <si>
+    <t>622************031</t>
+  </si>
+  <si>
+    <t>郑少刚</t>
+  </si>
+  <si>
+    <t>孟连金塔建安工程有限责任公司</t>
+  </si>
+  <si>
+    <t>510************472</t>
+  </si>
+  <si>
+    <t>张丽萍</t>
+  </si>
+  <si>
+    <t>云南宝磊基础工程有限公司</t>
+  </si>
+  <si>
+    <t>2111211971******68</t>
+  </si>
+  <si>
+    <t>李德争</t>
+  </si>
+  <si>
+    <t>西南交通建设集团股份有限公司</t>
+  </si>
+  <si>
+    <t>余绍维</t>
+  </si>
+  <si>
+    <t>53010319******2112</t>
+  </si>
+  <si>
+    <t>袁国保</t>
+  </si>
+  <si>
+    <t>云南杨桥建工有限公司</t>
+  </si>
+  <si>
+    <t>5301********092717</t>
+  </si>
+  <si>
+    <t>方菊鑫</t>
+  </si>
+  <si>
+    <t>云南正浩建设工程有限公司</t>
+  </si>
+  <si>
+    <t>530328**********22</t>
+  </si>
+  <si>
+    <t>雷腾云</t>
+  </si>
+  <si>
+    <t>云南尚泓建筑工程有限责任公司</t>
+  </si>
+  <si>
+    <t>5113********254151</t>
+  </si>
+  <si>
+    <t>李红艳</t>
+  </si>
+  <si>
+    <t>5301********110248</t>
+  </si>
+  <si>
+    <t>李焕丽</t>
+  </si>
+  <si>
+    <t>红河神工建设集团有限公司</t>
+  </si>
+  <si>
+    <t>倪邦文</t>
+  </si>
+  <si>
+    <t>云南鸣世建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>5110********056192</t>
+  </si>
+  <si>
+    <t>罗文聪</t>
+  </si>
+  <si>
+    <t>云南佳逸建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>刘正东</t>
+  </si>
+  <si>
+    <t>云南伟建工程监理有限公司</t>
+  </si>
+  <si>
+    <t>532************019</t>
+  </si>
+  <si>
+    <t>叶玲丽</t>
+  </si>
+  <si>
+    <t>昆明华龙智腾科技股份有限公司</t>
+  </si>
+  <si>
+    <t>532************027</t>
+  </si>
+  <si>
+    <t>柏春玲</t>
+  </si>
+  <si>
+    <t>云南昆州建设工程集团有限公司</t>
+  </si>
+  <si>
+    <t>5304********240329</t>
+  </si>
+  <si>
+    <t>赵亚梅</t>
+  </si>
+  <si>
+    <t>云南亚缇建设工程有限公司</t>
+  </si>
+  <si>
+    <t>朱胜日</t>
+  </si>
+  <si>
+    <t>曲靖市禹龙工程有限公司</t>
+  </si>
+  <si>
+    <t>5325********247453</t>
+  </si>
+  <si>
+    <t>张升玮</t>
+  </si>
+  <si>
+    <t>云南世珉建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>5301********060015</t>
+  </si>
+  <si>
+    <t>郑文莉</t>
+  </si>
+  <si>
+    <t>云南建投第二建设有限公司</t>
+  </si>
+  <si>
+    <t>532130**********43</t>
+  </si>
+  <si>
+    <t>王芳</t>
+  </si>
+  <si>
+    <t>云南省宣威市城南建筑有限公司</t>
+  </si>
+  <si>
+    <t>5329********011128</t>
+  </si>
+  <si>
+    <t>寸千量</t>
+  </si>
+  <si>
+    <t>德宏芒市建筑工程公司</t>
   </si>
 </sst>
 </file>
@@ -57,12 +954,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +968,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,10 +1019,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,13 +1043,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,13 +1056,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -168,24 +1064,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +1101,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,7 +1126,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +1180,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,19 +1222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +1246,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,115 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,21 +1330,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -457,22 +1344,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +1397,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +1425,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,141 +1437,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -989,87 +1892,2808 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1084884</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>901</v>
+      </c>
+      <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1090001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>336</v>
+      </c>
+      <c r="H3" s="1">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>1090334</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>864926</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>189</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>1486934</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>123</v>
+      </c>
+      <c r="H6" s="1">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>459300</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>173</v>
+      </c>
+      <c r="H7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>1083619</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>1270355</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
+        <v>252</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>1270969</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>268</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>680252</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>315</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>2073614</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>1660722</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1180</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>2071542</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>1271804</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1">
+        <v>297</v>
+      </c>
+      <c r="H15" s="1">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>682680</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1">
+        <v>158</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>1246172</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1916</v>
+      </c>
+      <c r="H17" s="1">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>1063561</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1">
+        <v>403</v>
+      </c>
+      <c r="H18" s="1">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>1063676</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>133</v>
+      </c>
+      <c r="H19" s="1">
+        <v>92</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>1059790</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>605</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>67797</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1">
+        <v>158</v>
+      </c>
+      <c r="H21" s="1">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>1844528</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="I22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>1246381</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>847287</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1">
+        <v>284</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>69975</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1">
+        <v>521</v>
+      </c>
+      <c r="H25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="I25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>70232</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>516</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>1066442</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1086</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>663367</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1">
+        <v>37</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>845863</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>464</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>1853676</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1">
+        <v>107</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>2053103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>225</v>
+      </c>
+      <c r="H31" s="1">
+        <v>38</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>1645519</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="1">
+        <v>397</v>
+      </c>
+      <c r="H32" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="I32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>446503</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1379</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>665535</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="1">
+        <v>182</v>
+      </c>
+      <c r="H34" s="1">
+        <v>36</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>665577</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>442887</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>446374</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="1">
+        <v>282</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>1471407</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="1">
+        <v>74</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>664152</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1">
+        <v>381</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>1649091</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="1">
+        <v>507</v>
+      </c>
+      <c r="H40" s="1">
+        <v>17</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>850518</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1">
+        <v>203</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>1070465</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1">
+        <v>152</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>72546</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="1">
+        <v>214</v>
+      </c>
+      <c r="H43" s="1">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>667949</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1">
+        <v>281</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>668144</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="1">
+        <v>365</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>450326</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1">
+        <v>481</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>75378</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="1">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1">
+        <v>12</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>664317</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2309</v>
+      </c>
+      <c r="H48" s="1">
+        <v>28</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>445720</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="1">
+        <v>98</v>
+      </c>
+      <c r="H49" s="1">
+        <v>17</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>1072883</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1">
+        <v>213</v>
+      </c>
+      <c r="H50" s="1">
+        <v>14</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>672966</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="1">
+        <v>68</v>
+      </c>
+      <c r="H51" s="1">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>451990</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="1">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>674387</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="1">
+        <v>148</v>
+      </c>
+      <c r="H53" s="1">
+        <v>39</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>2066457</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1">
+        <v>545</v>
+      </c>
+      <c r="H54" s="1">
+        <v>25</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>859285</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="1">
+        <v>381</v>
+      </c>
+      <c r="H55" s="1">
+        <v>33</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>260599</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1">
+        <v>447</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>1074830</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="1">
+        <v>134</v>
+      </c>
+      <c r="H57" s="1">
+        <v>17</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>76535</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1">
+        <v>189</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>4719441</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="1">
+        <v>45</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>1077532</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1">
+        <v>932</v>
+      </c>
+      <c r="H60" s="1">
+        <v>122</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>1654189</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1916</v>
+      </c>
+      <c r="H61" s="1">
+        <v>13</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>77704</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="1">
+        <v>111</v>
+      </c>
+      <c r="H62" s="1">
+        <v>15</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>262870</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G63" s="1">
+        <v>509</v>
+      </c>
+      <c r="H63" s="1">
+        <v>27</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>1075473</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>123</v>
+      </c>
+      <c r="H64" s="1">
+        <v>25</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>263177</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="1">
+        <v>427</v>
+      </c>
+      <c r="H65" s="1">
+        <v>11</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>80744</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="1">
+        <v>153</v>
+      </c>
+      <c r="H66" s="1">
+        <v>13</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>861927</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="1">
+        <v>149</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>1480660</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="1">
+        <v>155</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>1077026</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="1">
+        <v>157</v>
+      </c>
+      <c r="H69" s="1">
+        <v>8</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>2065416</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" s="1">
+        <v>338</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>1087105</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="1">
+        <v>183</v>
+      </c>
+      <c r="H71" s="1">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>1481774</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="1">
+        <v>155</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>1865463</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2402</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>859619</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1">
+        <v>178</v>
+      </c>
+      <c r="H74" s="1">
+        <v>31</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>1657491</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="1">
+        <v>146</v>
+      </c>
+      <c r="H75" s="1">
+        <v>7</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>264368</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="1">
+        <v>291</v>
+      </c>
+      <c r="H76" s="1">
+        <v>11</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>864493</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1">
+        <v>18</v>
+      </c>
+      <c r="H77" s="1">
+        <v>8</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>264033</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>21</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>683254</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G79" s="1">
+        <v>353</v>
+      </c>
+      <c r="H79" s="1">
+        <v>85</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>676403</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="1">
+        <v>225</v>
+      </c>
+      <c r="H80" s="1">
+        <v>27</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>1095659</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1">
+        <v>36</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>1862569</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="1">
+        <v>357</v>
+      </c>
+      <c r="H82" s="1">
+        <v>4</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>678331</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="1">
+        <v>19</v>
+      </c>
+      <c r="H83" s="1">
+        <v>6</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>1079683</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1">
+        <v>139</v>
+      </c>
+      <c r="H84" s="1">
+        <v>4</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>86077</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2402</v>
+      </c>
+      <c r="H85" s="1">
+        <v>33</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>4658652</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="1">
+        <v>538</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>2656013</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1">
+        <v>535</v>
+      </c>
+      <c r="H87" s="1">
+        <v>11</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>4660639</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="1">
+        <v>234</v>
+      </c>
+      <c r="H88" s="1">
+        <v>23</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>4659149</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="1">
+        <v>234</v>
+      </c>
+      <c r="H89" s="1">
+        <v>17</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>3286069</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="1">
+        <v>526</v>
+      </c>
+      <c r="H90" s="1">
+        <v>6</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>4672874</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="1">
+        <v>824</v>
+      </c>
+      <c r="H91" s="1">
+        <v>12</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>3171445</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="1">
+        <v>526</v>
+      </c>
+      <c r="H92" s="1">
+        <v>7</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>3179842</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="1">
+        <v>237</v>
+      </c>
+      <c r="H93" s="1">
+        <v>3</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>3171030</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="1">
+        <v>200</v>
+      </c>
+      <c r="H94" s="1">
+        <v>3</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>4685493</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="1">
+        <v>447</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>3304389</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>4696114</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="1">
+        <v>218</v>
+      </c>
+      <c r="H97" s="1">
+        <v>8</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>4693784</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="1">
+        <v>521</v>
+      </c>
+      <c r="H98" s="1">
+        <v>72</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>2585083</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1013</v>
+      </c>
+      <c r="H99" s="1">
+        <v>8</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>4713403</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="1">
+        <v>990</v>
+      </c>
+      <c r="H100" s="1">
+        <v>27</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>3334818</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G101" s="1">
+        <v>239</v>
+      </c>
+      <c r="H101" s="1">
+        <v>7</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/BSTAuto_Python/bst_new/data/xmjl_list/云南_项目经理列表_模板.xlsx
+++ b/BSTAuto_Python/bst_new/data/xmjl_list/云南_项目经理列表_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20220" windowHeight="12555"/>
+    <workbookView windowWidth="21285" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -973,20 +973,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1000,22 +986,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1035,6 +1005,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1050,7 +1035,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,16 +1064,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,13 +1109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,7 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,19 +1138,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,13 +1192,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,73 +1288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,49 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,21 +1325,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,6 +1349,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,15 +1409,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1425,10 +1425,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1437,133 +1437,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1895,7 +1895,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
